--- a/today/Data/TestData.xlsx
+++ b/today/Data/TestData.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/git/seleniumHybridFramework/hybridFramework/src/main/java/com/hybridFramework/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9735" windowHeight="1950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
     <sheet name="Registration" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:F4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>userName</t>
   </si>
@@ -39,15 +35,6 @@
     <t>runMode</t>
   </si>
   <si>
-    <t>automation@gmail.com</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>TestData1</t>
   </si>
   <si>
@@ -118,12 +105,21 @@
   </si>
   <si>
     <t>F2</t>
+  </si>
+  <si>
+    <t>trtr@mailnesia.com</t>
+  </si>
+  <si>
+    <t>1234qwer</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -190,6 +186,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -460,16 +459,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,93 +477,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -575,90 +503,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
